--- a/Таблица_Excel_БД.xlsx
+++ b/Таблица_Excel_БД.xlsx
@@ -23,55 +23,55 @@
     <t>сделан</t>
   </si>
   <si>
-    <t>2023-07-02 18:50:15.451045</t>
+    <t>2023-07-07 22:46:44.100907</t>
+  </si>
+  <si>
+    <t>для всех направлений указанных в файле система выводит крайнее место. если человек вылетел из списка, то функция выводит кол-во бюджетных мест</t>
   </si>
   <si>
     <t>направление</t>
   </si>
   <si>
-    <t>мойномер</t>
-  </si>
-  <si>
-    <t>проходбаллатт</t>
-  </si>
-  <si>
-    <t>мой</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&gt;+аттестат</t>
-  </si>
-  <si>
-    <t>мест</t>
+    <t>Б&gt;ориг</t>
+  </si>
+  <si>
+    <t>Б&gt;</t>
+  </si>
+  <si>
+    <t>А&gt;ориг</t>
+  </si>
+  <si>
+    <t>А&gt;</t>
+  </si>
+  <si>
+    <t>кол-во мест</t>
+  </si>
+  <si>
+    <t>Бпрохориг</t>
+  </si>
+  <si>
+    <t>Бпрох</t>
+  </si>
+  <si>
+    <t>Апрохориг</t>
+  </si>
+  <si>
+    <t>Апрох</t>
+  </si>
+  <si>
+    <t>09.03.04</t>
+  </si>
+  <si>
+    <t>02.03.02</t>
+  </si>
+  <si>
+    <t>09.03.01иии</t>
+  </si>
+  <si>
+    <t>09.03.02.икб</t>
   </si>
   <si>
     <t>01.03.02</t>
-  </si>
-  <si>
-    <t>09.03.01иии</t>
-  </si>
-  <si>
-    <t>09.03.01иит</t>
-  </si>
-  <si>
-    <t>09.03.02.икб</t>
-  </si>
-  <si>
-    <t>09.03.02.ири</t>
-  </si>
-  <si>
-    <t>09.03.02.иптип.Компьютерный дизайн</t>
-  </si>
-  <si>
-    <t>09.03.02.1.иптип.Фулстек разработка</t>
-  </si>
-  <si>
-    <t>09.03.03</t>
-  </si>
-  <si>
-    <t>09.03.04</t>
   </si>
 </sst>
 </file>
@@ -421,11 +421,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -435,240 +432,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>156</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>156</v>
+      </c>
+      <c r="F2">
+        <v>156</v>
+      </c>
+      <c r="G2">
+        <f>IF($F2&gt;B2,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF($F2&gt;C2,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF($F2&gt;D2,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IF($F2&gt;E2,"+","-")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <f>IF($F3&gt;B3,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IF($F3&gt;C3,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IF($F3&gt;D3,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IF($F3&gt;E3,"+","-")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>97</v>
+      </c>
+      <c r="G4">
+        <f>IF($F4&gt;B4,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IF($F4&gt;C4,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>IF($F4&gt;D4,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>IF($F4&gt;E4,"+","-")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>138</v>
-      </c>
-      <c r="D2">
-        <v>278</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>132</v>
+      </c>
+      <c r="G5">
+        <f>IF($F5&gt;B5,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>IF($F5&gt;C5,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>IF($F5&gt;D5,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>IF($F5&gt;E5,"+","-")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>278</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>163</v>
-      </c>
-      <c r="D4">
-        <v>278</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>278</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>278</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>278</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>178</v>
-      </c>
-      <c r="D8">
-        <v>278</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>157</v>
-      </c>
-      <c r="D9">
-        <v>278</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>278</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>156</v>
+        <f>IF($F6&gt;B6,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>IF($F6&gt;C6,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>IF($F6&gt;D6,"+","-")</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>IF($F6&gt;E6,"+","-")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Таблица_Excel_БД.xlsx
+++ b/Таблица_Excel_БД.xlsx
@@ -23,7 +23,7 @@
     <t>сделан</t>
   </si>
   <si>
-    <t>2023-07-07 22:46:44.100907</t>
+    <t>26/07/2023 01:00:02</t>
   </si>
   <si>
     <t>для всех направлений указанных в файле система выводит крайнее место. если человек вылетел из списка, то функция выводит кол-во бюджетных мест</t>
@@ -475,16 +475,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>156</v>
@@ -511,13 +511,13 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>97</v>
@@ -583,16 +583,16 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="F5">
         <v>132</v>
@@ -622,13 +622,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>66</v>
